--- a/2022/Realme/JULY/30.07.2022/realme Bank Statement June-20222.xlsx
+++ b/2022/Realme/JULY/30.07.2022/realme Bank Statement June-20222.xlsx
@@ -2513,6 +2513,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2540,12 +2552,6 @@
     <xf numFmtId="1" fontId="36" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2558,11 +2564,17 @@
     <xf numFmtId="0" fontId="36" fillId="35" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="39" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="37" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2614,18 +2626,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4196,67 +4196,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="233" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="229"/>
-      <c r="L1" s="229"/>
-      <c r="M1" s="229"/>
-      <c r="N1" s="229"/>
-      <c r="O1" s="229"/>
-      <c r="P1" s="229"/>
-      <c r="Q1" s="229"/>
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="233"/>
+      <c r="M1" s="233"/>
+      <c r="N1" s="233"/>
+      <c r="O1" s="233"/>
+      <c r="P1" s="233"/>
+      <c r="Q1" s="233"/>
     </row>
     <row r="2" spans="1:24" s="59" customFormat="1" ht="18">
-      <c r="A2" s="230" t="s">
+      <c r="A2" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="230"/>
-      <c r="J2" s="230"/>
-      <c r="K2" s="230"/>
-      <c r="L2" s="230"/>
-      <c r="M2" s="230"/>
-      <c r="N2" s="230"/>
-      <c r="O2" s="230"/>
-      <c r="P2" s="230"/>
-      <c r="Q2" s="230"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
+      <c r="M2" s="234"/>
+      <c r="N2" s="234"/>
+      <c r="O2" s="234"/>
+      <c r="P2" s="234"/>
+      <c r="Q2" s="234"/>
     </row>
     <row r="3" spans="1:24" s="60" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="231" t="s">
+      <c r="A3" s="235" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="232"/>
-      <c r="M3" s="232"/>
-      <c r="N3" s="232"/>
-      <c r="O3" s="232"/>
-      <c r="P3" s="232"/>
-      <c r="Q3" s="233"/>
+      <c r="B3" s="236"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="236"/>
+      <c r="M3" s="236"/>
+      <c r="N3" s="236"/>
+      <c r="O3" s="236"/>
+      <c r="P3" s="236"/>
+      <c r="Q3" s="237"/>
       <c r="S3" s="42"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4265,52 +4265,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="62" customFormat="1">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="238" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="236" t="s">
+      <c r="B4" s="240" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="238" t="s">
+      <c r="C4" s="229" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="238" t="s">
+      <c r="D4" s="229" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="238" t="s">
+      <c r="E4" s="229" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="238" t="s">
+      <c r="F4" s="229" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="238" t="s">
+      <c r="G4" s="229" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="238" t="s">
+      <c r="H4" s="229" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="238" t="s">
+      <c r="I4" s="229" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="238" t="s">
+      <c r="J4" s="229" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="238" t="s">
+      <c r="K4" s="229" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="238" t="s">
+      <c r="L4" s="229" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="238" t="s">
+      <c r="M4" s="229" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="244" t="s">
+      <c r="N4" s="231" t="s">
         <v>101</v>
       </c>
-      <c r="O4" s="242" t="s">
+      <c r="O4" s="244" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="240" t="s">
+      <c r="P4" s="242" t="s">
         <v>30</v>
       </c>
       <c r="Q4" s="61" t="s">
@@ -4323,22 +4323,22 @@
       <c r="W4" s="64"/>
     </row>
     <row r="5" spans="1:24" s="62" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="235"/>
-      <c r="B5" s="237"/>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="239"/>
-      <c r="G5" s="239"/>
-      <c r="H5" s="239"/>
-      <c r="I5" s="239"/>
-      <c r="J5" s="239"/>
-      <c r="K5" s="239"/>
-      <c r="L5" s="239"/>
-      <c r="M5" s="239"/>
-      <c r="N5" s="245"/>
-      <c r="O5" s="243"/>
-      <c r="P5" s="241"/>
+      <c r="A5" s="239"/>
+      <c r="B5" s="241"/>
+      <c r="C5" s="230"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="230"/>
+      <c r="F5" s="230"/>
+      <c r="G5" s="230"/>
+      <c r="H5" s="230"/>
+      <c r="I5" s="230"/>
+      <c r="J5" s="230"/>
+      <c r="K5" s="230"/>
+      <c r="L5" s="230"/>
+      <c r="M5" s="230"/>
+      <c r="N5" s="232"/>
+      <c r="O5" s="245"/>
+      <c r="P5" s="243"/>
       <c r="Q5" s="66" t="s">
         <v>31</v>
       </c>
@@ -7456,6 +7456,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -7472,9 +7475,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7511,14 +7511,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="19.5">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="254" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="252"/>
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="256"/>
       <c r="H1" s="38"/>
       <c r="I1" s="113"/>
       <c r="J1" s="113"/>
@@ -7571,14 +7571,14 @@
       <c r="BE1" s="113"/>
     </row>
     <row r="2" spans="1:57" ht="15" customHeight="1">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="257" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="254"/>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="255"/>
+      <c r="B2" s="258"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="259"/>
       <c r="H2" s="38"/>
       <c r="I2" s="113"/>
       <c r="J2" s="113"/>
@@ -7631,14 +7631,14 @@
       <c r="BE2" s="113"/>
     </row>
     <row r="3" spans="1:57" ht="13.5" thickBot="1">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="260" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="257"/>
-      <c r="C3" s="257"/>
-      <c r="D3" s="257"/>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="B3" s="261"/>
+      <c r="C3" s="261"/>
+      <c r="D3" s="261"/>
+      <c r="E3" s="261"/>
+      <c r="F3" s="262"/>
       <c r="H3" s="38"/>
       <c r="I3" s="113"/>
       <c r="J3" s="113"/>
@@ -9629,13 +9629,13 @@
       <c r="BE34" s="113"/>
     </row>
     <row r="35" spans="1:57" ht="13.5" thickBot="1">
-      <c r="A35" s="260" t="s">
+      <c r="A35" s="264" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="261"/>
-      <c r="C35" s="261"/>
-      <c r="D35" s="261"/>
-      <c r="E35" s="262"/>
+      <c r="B35" s="265"/>
+      <c r="C35" s="265"/>
+      <c r="D35" s="265"/>
+      <c r="E35" s="266"/>
       <c r="F35" s="41"/>
       <c r="G35" s="50"/>
       <c r="H35" s="38"/>
@@ -9690,12 +9690,12 @@
       <c r="BE35" s="113"/>
     </row>
     <row r="36" spans="1:57" ht="13.5" thickBot="1">
-      <c r="A36" s="248" t="s">
+      <c r="A36" s="252" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="259"/>
-      <c r="C36" s="259"/>
-      <c r="D36" s="249"/>
+      <c r="B36" s="263"/>
+      <c r="C36" s="263"/>
+      <c r="D36" s="253"/>
       <c r="E36" s="131">
         <f>F33-C119</f>
         <v>0</v>
@@ -9835,12 +9835,12 @@
       </c>
       <c r="E38" s="41"/>
       <c r="F38" s="41"/>
-      <c r="G38" s="263" t="s">
+      <c r="G38" s="246" t="s">
         <v>57</v>
       </c>
-      <c r="H38" s="263"/>
-      <c r="I38" s="263"/>
-      <c r="J38" s="263"/>
+      <c r="H38" s="246"/>
+      <c r="I38" s="246"/>
+      <c r="J38" s="246"/>
       <c r="K38" s="113"/>
       <c r="L38" s="113"/>
       <c r="M38" s="113"/>
@@ -9980,11 +9980,11 @@
       </c>
       <c r="E40" s="41"/>
       <c r="F40" s="42"/>
-      <c r="G40" s="265" t="s">
+      <c r="G40" s="248" t="s">
         <v>61</v>
       </c>
-      <c r="H40" s="265"/>
-      <c r="I40" s="265"/>
+      <c r="H40" s="248"/>
+      <c r="I40" s="248"/>
       <c r="J40" s="147">
         <v>3000</v>
       </c>
@@ -10051,11 +10051,11 @@
       </c>
       <c r="E41" s="52"/>
       <c r="F41" s="42"/>
-      <c r="G41" s="266" t="s">
+      <c r="G41" s="249" t="s">
         <v>60</v>
       </c>
-      <c r="H41" s="266"/>
-      <c r="I41" s="266"/>
+      <c r="H41" s="249"/>
+      <c r="I41" s="249"/>
       <c r="J41" s="147">
         <v>1800</v>
       </c>
@@ -10119,11 +10119,11 @@
         <v>121</v>
       </c>
       <c r="F42" s="42"/>
-      <c r="G42" s="266" t="s">
+      <c r="G42" s="249" t="s">
         <v>62</v>
       </c>
-      <c r="H42" s="266"/>
-      <c r="I42" s="266"/>
+      <c r="H42" s="249"/>
+      <c r="I42" s="249"/>
       <c r="J42" s="147">
         <v>1500</v>
       </c>
@@ -10192,11 +10192,11 @@
         <v>11</v>
       </c>
       <c r="F43" s="113"/>
-      <c r="G43" s="264" t="s">
+      <c r="G43" s="247" t="s">
         <v>59</v>
       </c>
-      <c r="H43" s="264"/>
-      <c r="I43" s="264"/>
+      <c r="H43" s="247"/>
+      <c r="I43" s="247"/>
       <c r="J43" s="225">
         <f>SUM(J39:J41)</f>
         <v>17190</v>
@@ -14068,10 +14068,10 @@
       <c r="AX116" s="113"/>
     </row>
     <row r="117" spans="1:50" ht="15.75" thickBot="1">
-      <c r="A117" s="246" t="s">
+      <c r="A117" s="250" t="s">
         <v>20</v>
       </c>
-      <c r="B117" s="247"/>
+      <c r="B117" s="251"/>
       <c r="C117" s="163">
         <f>SUM(C37:C116)</f>
         <v>938220</v>
@@ -14175,10 +14175,10 @@
       <c r="AX118" s="113"/>
     </row>
     <row r="119" spans="1:50" ht="13.5" thickBot="1">
-      <c r="A119" s="248" t="s">
+      <c r="A119" s="252" t="s">
         <v>21</v>
       </c>
-      <c r="B119" s="249"/>
+      <c r="B119" s="253"/>
       <c r="C119" s="130">
         <f>C117</f>
         <v>938220</v>
@@ -14926,11 +14926,6 @@
     <sortCondition ref="A37"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
     <mergeCell ref="A117:B117"/>
     <mergeCell ref="A119:B119"/>
     <mergeCell ref="A1:F1"/>
@@ -14938,6 +14933,11 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A35:E35"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -14954,7 +14954,7 @@
   <dimension ref="A1:AB216"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection sqref="A1:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
